--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-22_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-22_valid.xlsx
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1269</v>
+        <v>1337</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="AZ4">
-        <v>481.8987341772152</v>
+        <v>507.7215189873418</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.566939687267312</v>
+        <v>0.597319434102755</v>
       </c>
       <c r="CM4">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.4481468578319711</v>
+        <v>0.4590807986064586</v>
       </c>
     </row>
     <row r="5" spans="1:105">
@@ -29014,7 +29014,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>1180</v>
+        <v>1245</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -29128,7 +29128,7 @@
         <v>0</v>
       </c>
       <c r="AZ88">
-        <v>376.5957446808511</v>
+        <v>397.3404255319149</v>
       </c>
       <c r="BA88">
         <v>0</v>
@@ -29242,7 +29242,7 @@
         <v>0</v>
       </c>
       <c r="CL88">
-        <v>0.4430538172715895</v>
+        <v>0.467459324155194</v>
       </c>
       <c r="CM88">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="DA88">
-        <v>0.7724293129675225</v>
+        <v>0.7847632788119248</v>
       </c>
     </row>
     <row r="89" spans="1:105">
@@ -31867,7 +31867,7 @@
         <v>36</v>
       </c>
       <c r="N97">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="O97">
         <v>2525</v>
@@ -31981,7 +31981,7 @@
         <v>30</v>
       </c>
       <c r="AZ97">
-        <v>315.7894736842105</v>
+        <v>438.9473684210527</v>
       </c>
       <c r="BA97">
         <v>608.4337349397591</v>
@@ -32095,7 +32095,7 @@
         <v>0.00646830530401035</v>
       </c>
       <c r="CL97">
-        <v>0.3715170278637771</v>
+        <v>0.5164086687306502</v>
       </c>
       <c r="CM97">
         <v>0.7605421686746989</v>
@@ -32140,7 +32140,7 @@
         <v>0</v>
       </c>
       <c r="DA97">
-        <v>0.5332667412722643</v>
+        <v>0.5462217585733022</v>
       </c>
     </row>
     <row r="98" spans="1:105">
